--- a/spliced/falling/2023-03-25_17-56-04/data_selected.xlsx
+++ b/spliced/falling/2023-03-25_17-56-04/data_selected.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H22"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -485,22 +485,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>-0.4331760406494141</v>
+        <v>-0.6957695484161374</v>
       </c>
       <c r="D2" t="n">
-        <v>1.524660766124726</v>
+        <v>1.588029444217682</v>
       </c>
       <c r="E2" t="n">
-        <v>1.148605212569236</v>
+        <v>1.020436197519302</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.0171042270958423</v>
+        <v>-0.0114537235349416</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.0526871271431446</v>
+        <v>-0.0215329993516206</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0519235469400882</v>
+        <v>0.0035124751739203</v>
       </c>
     </row>
     <row r="3">
@@ -513,22 +513,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>-0.3733081817626966</v>
+        <v>-0.4331760406494141</v>
       </c>
       <c r="D3" t="n">
-        <v>1.395935773849488</v>
+        <v>1.524660766124726</v>
       </c>
       <c r="E3" t="n">
-        <v>1.908020853996279</v>
+        <v>1.148605212569236</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0067195175215601</v>
+        <v>-0.0171042270958423</v>
       </c>
       <c r="G3" t="n">
-        <v>0.1915062516927719</v>
+        <v>-0.0526871271431446</v>
       </c>
       <c r="H3" t="n">
-        <v>-0.0238237436860799</v>
+        <v>0.0519235469400882</v>
       </c>
     </row>
     <row r="4">
@@ -541,22 +541,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>-0.9485191106796277</v>
+        <v>-0.3733081817626966</v>
       </c>
       <c r="D4" t="n">
-        <v>1.76411008834839</v>
+        <v>1.395935773849488</v>
       </c>
       <c r="E4" t="n">
-        <v>2.944827482104304</v>
+        <v>1.908020853996279</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.001527163083665</v>
+        <v>0.0067195175215601</v>
       </c>
       <c r="G4" t="n">
-        <v>0.3747658133506775</v>
+        <v>0.1915062516927719</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0192422550171613</v>
+        <v>-0.0238237436860799</v>
       </c>
     </row>
     <row r="5">
@@ -569,22 +569,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>-1.393463373184205</v>
+        <v>-0.9485191106796277</v>
       </c>
       <c r="D5" t="n">
-        <v>1.543532192707062</v>
+        <v>1.76411008834839</v>
       </c>
       <c r="E5" t="n">
-        <v>3.777262568473817</v>
+        <v>2.944827482104304</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.3475823104381561</v>
+        <v>-0.001527163083665</v>
       </c>
       <c r="G5" t="n">
-        <v>0.5015203952789307</v>
+        <v>0.3747658133506775</v>
       </c>
       <c r="H5" t="n">
-        <v>-0.2428189367055893</v>
+        <v>0.0192422550171613</v>
       </c>
     </row>
     <row r="6">
@@ -597,22 +597,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>-1.7527374625206</v>
+        <v>-1.393463373184205</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9714637398719776</v>
+        <v>1.543532192707062</v>
       </c>
       <c r="E6" t="n">
-        <v>4.131629109382629</v>
+        <v>3.777262568473817</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.2506074607372284</v>
+        <v>-0.3475823104381561</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8736900091171265</v>
+        <v>0.5015203952789307</v>
       </c>
       <c r="H6" t="n">
-        <v>-0.1963931769132614</v>
+        <v>-0.2428189367055893</v>
       </c>
     </row>
     <row r="7">
@@ -625,22 +625,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>-2.943279504776003</v>
+        <v>-1.7527374625206</v>
       </c>
       <c r="D7" t="n">
-        <v>0.2452936768531791</v>
+        <v>0.9714637398719776</v>
       </c>
       <c r="E7" t="n">
-        <v>4.232949018478394</v>
+        <v>4.131629109382629</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.168751522898674</v>
+        <v>-0.2506074607372284</v>
       </c>
       <c r="G7" t="n">
-        <v>0.936914563179016</v>
+        <v>0.8736900091171265</v>
       </c>
       <c r="H7" t="n">
-        <v>-0.131183311343193</v>
+        <v>-0.1963931769132614</v>
       </c>
     </row>
     <row r="8">
@@ -653,22 +653,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>-3.76435226202011</v>
+        <v>-2.943279504776003</v>
       </c>
       <c r="D8" t="n">
-        <v>0.9894824773073276</v>
+        <v>0.2452936768531791</v>
       </c>
       <c r="E8" t="n">
-        <v>3.341848820447916</v>
+        <v>4.232949018478394</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.2408336251974105</v>
+        <v>-0.168751522898674</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.064446285367012</v>
+        <v>0.936914563179016</v>
       </c>
       <c r="H8" t="n">
-        <v>-0.3248275816440582</v>
+        <v>-0.131183311343193</v>
       </c>
     </row>
     <row r="9">
@@ -681,22 +681,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>-0.01425111293788817</v>
+        <v>-3.76435226202011</v>
       </c>
       <c r="D9" t="n">
-        <v>1.767028868198381</v>
+        <v>0.9894824773073276</v>
       </c>
       <c r="E9" t="n">
-        <v>-1.569932878017464</v>
+        <v>3.341848820447916</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.2364048510789871</v>
+        <v>-0.2408336251974105</v>
       </c>
       <c r="G9" t="n">
-        <v>0.18539759516716</v>
+        <v>-0.064446285367012</v>
       </c>
       <c r="H9" t="n">
-        <v>-1.519680023193359</v>
+        <v>-0.3248275816440582</v>
       </c>
     </row>
     <row r="10">
@@ -709,22 +709,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>7.34391605854027</v>
+        <v>-0.01425111293788817</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.5457401573657639</v>
+        <v>1.767028868198381</v>
       </c>
       <c r="E10" t="n">
-        <v>-8.302204966545009</v>
+        <v>-1.569932878017464</v>
       </c>
       <c r="F10" t="n">
-        <v>-1.216843605041504</v>
+        <v>-0.2364048510789871</v>
       </c>
       <c r="G10" t="n">
-        <v>-1.400255799293518</v>
+        <v>0.18539759516716</v>
       </c>
       <c r="H10" t="n">
-        <v>-1.343445420265198</v>
+        <v>-1.519680023193359</v>
       </c>
     </row>
     <row r="11">
@@ -737,22 +737,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>-11.97496986389153</v>
+        <v>7.34391605854027</v>
       </c>
       <c r="D11" t="n">
-        <v>8.297744750976534</v>
+        <v>-0.5457401573657639</v>
       </c>
       <c r="E11" t="n">
-        <v>15.6360607147216</v>
+        <v>-8.302204966545009</v>
       </c>
       <c r="F11" t="n">
-        <v>1.094823241233826</v>
+        <v>-1.216843605041504</v>
       </c>
       <c r="G11" t="n">
-        <v>-2.151772737503052</v>
+        <v>-1.400255799293518</v>
       </c>
       <c r="H11" t="n">
-        <v>0.7765624523162842</v>
+        <v>-1.343445420265198</v>
       </c>
     </row>
     <row r="12">
@@ -765,22 +765,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>3.999401926994334</v>
+        <v>-11.97496986389153</v>
       </c>
       <c r="D12" t="n">
-        <v>1.987441882491108</v>
+        <v>8.297744750976534</v>
       </c>
       <c r="E12" t="n">
-        <v>-1.899090290069591</v>
+        <v>15.6360607147216</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.2055561542510986</v>
+        <v>1.094823241233826</v>
       </c>
       <c r="G12" t="n">
-        <v>-1.607033729553223</v>
+        <v>-2.151772737503052</v>
       </c>
       <c r="H12" t="n">
-        <v>-0.9816604256629944</v>
+        <v>0.7765624523162842</v>
       </c>
     </row>
     <row r="13">
@@ -793,22 +793,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>2.015434503555293</v>
+        <v>3.999401926994334</v>
       </c>
       <c r="D13" t="n">
-        <v>2.558928638696672</v>
+        <v>1.987441882491108</v>
       </c>
       <c r="E13" t="n">
-        <v>-0.2935100495815224</v>
+        <v>-1.899090290069591</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.5111414790153503</v>
+        <v>-0.2055561542510986</v>
       </c>
       <c r="G13" t="n">
-        <v>-1.858557462692261</v>
+        <v>-1.607033729553223</v>
       </c>
       <c r="H13" t="n">
-        <v>0.0117591563612222</v>
+        <v>-0.9816604256629944</v>
       </c>
     </row>
     <row r="14">
@@ -821,22 +821,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0.5337359905242919</v>
+        <v>2.015434503555293</v>
       </c>
       <c r="D14" t="n">
-        <v>2.63483315706253</v>
+        <v>2.558928638696672</v>
       </c>
       <c r="E14" t="n">
-        <v>-0.1261084899306326</v>
+        <v>-0.2935100495815224</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.3014619946479797</v>
+        <v>-0.5111414790153503</v>
       </c>
       <c r="G14" t="n">
-        <v>-0.9010262489318848</v>
+        <v>-1.858557462692261</v>
       </c>
       <c r="H14" t="n">
-        <v>0.4983133375644684</v>
+        <v>0.0117591563612222</v>
       </c>
     </row>
     <row r="15">
@@ -849,22 +849,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>1.104637145996096</v>
+        <v>0.5337359905242919</v>
       </c>
       <c r="D15" t="n">
-        <v>1.630028188228604</v>
+        <v>2.63483315706253</v>
       </c>
       <c r="E15" t="n">
-        <v>-0.8494508564472198</v>
+        <v>-0.1261084899306326</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.2797762751579284</v>
+        <v>-0.3014619946479797</v>
       </c>
       <c r="G15" t="n">
-        <v>-1.265254616737366</v>
+        <v>-0.9010262489318848</v>
       </c>
       <c r="H15" t="n">
-        <v>0.2492330223321914</v>
+        <v>0.4983133375644684</v>
       </c>
     </row>
     <row r="16">
@@ -877,22 +877,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>-1.313743948936482</v>
+        <v>1.104637145996096</v>
       </c>
       <c r="D16" t="n">
-        <v>1.221044480800631</v>
+        <v>1.630028188228604</v>
       </c>
       <c r="E16" t="n">
-        <v>-1.651125282049184</v>
+        <v>-0.8494508564472198</v>
       </c>
       <c r="F16" t="n">
-        <v>0.2038762718439102</v>
+        <v>-0.2797762751579284</v>
       </c>
       <c r="G16" t="n">
-        <v>-1.481042742729187</v>
+        <v>-1.265254616737366</v>
       </c>
       <c r="H16" t="n">
-        <v>-0.2376265823841095</v>
+        <v>0.2492330223321914</v>
       </c>
     </row>
     <row r="17">
@@ -905,22 +905,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>-5.144322872161865</v>
+        <v>-1.313743948936482</v>
       </c>
       <c r="D17" t="n">
-        <v>1.553820222616196</v>
+        <v>1.221044480800631</v>
       </c>
       <c r="E17" t="n">
-        <v>-2.058750659227372</v>
+        <v>-1.651125282049184</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.328340083360672</v>
+        <v>0.2038762718439102</v>
       </c>
       <c r="G17" t="n">
-        <v>0.6785185933113098</v>
+        <v>-1.481042742729187</v>
       </c>
       <c r="H17" t="n">
-        <v>0.7831292152404785</v>
+        <v>-0.2376265823841095</v>
       </c>
     </row>
     <row r="18">
@@ -933,22 +933,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>-1.258464217185967</v>
+        <v>-5.144322872161865</v>
       </c>
       <c r="D18" t="n">
-        <v>1.119151741266259</v>
+        <v>1.553820222616196</v>
       </c>
       <c r="E18" t="n">
-        <v>0.6321565061807609</v>
+        <v>-2.058750659227372</v>
       </c>
       <c r="F18" t="n">
-        <v>0.0797179117798805</v>
+        <v>-0.328340083360672</v>
       </c>
       <c r="G18" t="n">
-        <v>0.1185078546404838</v>
+        <v>0.6785185933113098</v>
       </c>
       <c r="H18" t="n">
-        <v>0.2952006161212921</v>
+        <v>0.7831292152404785</v>
       </c>
     </row>
     <row r="19">
@@ -961,22 +961,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>0.5062999725341749</v>
+        <v>-1.258464217185967</v>
       </c>
       <c r="D19" t="n">
-        <v>3.225210666656487</v>
+        <v>1.119151741266259</v>
       </c>
       <c r="E19" t="n">
-        <v>0.02823758125305291</v>
+        <v>0.6321565061807609</v>
       </c>
       <c r="F19" t="n">
-        <v>0.0479529201984405</v>
+        <v>0.0797179117798805</v>
       </c>
       <c r="G19" t="n">
-        <v>0.3949243724346161</v>
+        <v>0.1185078546404838</v>
       </c>
       <c r="H19" t="n">
-        <v>-0.1617265790700912</v>
+        <v>0.2952006161212921</v>
       </c>
     </row>
     <row r="20">
@@ -989,22 +989,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>-0.5733692646026665</v>
+        <v>0.5062999725341749</v>
       </c>
       <c r="D20" t="n">
-        <v>1.683094680309288</v>
+        <v>3.225210666656487</v>
       </c>
       <c r="E20" t="n">
-        <v>0.3010409921407713</v>
+        <v>0.02823758125305291</v>
       </c>
       <c r="F20" t="n">
-        <v>-0.08704829961061469</v>
+        <v>0.0479529201984405</v>
       </c>
       <c r="G20" t="n">
-        <v>-0.058643065392971</v>
+        <v>0.3949243724346161</v>
       </c>
       <c r="H20" t="n">
-        <v>-0.2785545587539673</v>
+        <v>-0.1617265790700912</v>
       </c>
     </row>
     <row r="21">
@@ -1017,50 +1017,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>-0.4257340431213359</v>
+        <v>-0.5733692646026665</v>
       </c>
       <c r="D21" t="n">
-        <v>1.845006287097933</v>
+        <v>1.683094680309288</v>
       </c>
       <c r="E21" t="n">
-        <v>0.8945446908474008</v>
+        <v>0.3010409921407713</v>
       </c>
       <c r="F21" t="n">
-        <v>-0.0519235469400882</v>
+        <v>-0.08704829961061469</v>
       </c>
       <c r="G21" t="n">
-        <v>-0.107512280344963</v>
+        <v>-0.058643065392971</v>
       </c>
       <c r="H21" t="n">
-        <v>0.1065959855914115</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="n">
-        <v>2000</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>falling</t>
-        </is>
-      </c>
-      <c r="C22" t="n">
-        <v>0.06665813922882169</v>
-      </c>
-      <c r="D22" t="n">
-        <v>1.836877554655074</v>
-      </c>
-      <c r="E22" t="n">
-        <v>0.7217497229576104</v>
-      </c>
-      <c r="F22" t="n">
-        <v>0.0108428578823804</v>
-      </c>
-      <c r="G22" t="n">
-        <v>-0.0210748501121997</v>
-      </c>
-      <c r="H22" t="n">
-        <v>-0.0189368221908807</v>
+        <v>-0.2785545587539673</v>
       </c>
     </row>
   </sheetData>

--- a/spliced/falling/2023-03-25_17-56-04/data_selected.xlsx
+++ b/spliced/falling/2023-03-25_17-56-04/data_selected.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -485,22 +485,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>-0.6957695484161374</v>
+        <v>-1.275631546974182</v>
       </c>
       <c r="D2" t="n">
-        <v>1.588029444217682</v>
+        <v>1.748281717300415</v>
       </c>
       <c r="E2" t="n">
-        <v>1.020436197519302</v>
+        <v>0.7527783811092381</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.0114537235349416</v>
+        <v>-0.0042760567739605</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.0215329993516206</v>
+        <v>-0.1111774742603302</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0035124751739203</v>
+        <v>-0.0980438739061355</v>
       </c>
     </row>
     <row r="3">
@@ -513,22 +513,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>-0.4331760406494141</v>
+        <v>-1.113769233226775</v>
       </c>
       <c r="D3" t="n">
-        <v>1.524660766124726</v>
+        <v>1.769958406686783</v>
       </c>
       <c r="E3" t="n">
-        <v>1.148605212569236</v>
+        <v>1.082688376307487</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.0171042270958423</v>
+        <v>0.0734565481543541</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.0526871271431446</v>
+        <v>0.1905899494886398</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0519235469400882</v>
+        <v>-0.1611157059669494</v>
       </c>
     </row>
     <row r="4">
@@ -541,22 +541,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>-0.3733081817626966</v>
+        <v>0.6056947708129873</v>
       </c>
       <c r="D4" t="n">
-        <v>1.395935773849488</v>
+        <v>1.413846492767334</v>
       </c>
       <c r="E4" t="n">
-        <v>1.908020853996279</v>
+        <v>1.041245818138122</v>
       </c>
       <c r="F4" t="n">
-        <v>0.0067195175215601</v>
+        <v>-0.101709060370922</v>
       </c>
       <c r="G4" t="n">
-        <v>0.1915062516927719</v>
+        <v>-0.09025534242391579</v>
       </c>
       <c r="H4" t="n">
-        <v>-0.0238237436860799</v>
+        <v>0.1893682330846786</v>
       </c>
     </row>
     <row r="5">
@@ -569,22 +569,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>-0.9485191106796277</v>
+        <v>-0.2511940002441411</v>
       </c>
       <c r="D5" t="n">
-        <v>1.76411008834839</v>
+        <v>1.83873063325882</v>
       </c>
       <c r="E5" t="n">
-        <v>2.944827482104304</v>
+        <v>0.5010688602924345</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.001527163083665</v>
+        <v>-0.0087048299610614</v>
       </c>
       <c r="G5" t="n">
-        <v>0.3747658133506775</v>
+        <v>0.024892758578062</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0192422550171613</v>
+        <v>0.00167987938039</v>
       </c>
     </row>
     <row r="6">
@@ -597,22 +597,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>-1.393463373184205</v>
+        <v>-0.7442607879638676</v>
       </c>
       <c r="D6" t="n">
-        <v>1.543532192707062</v>
+        <v>1.761505782604217</v>
       </c>
       <c r="E6" t="n">
-        <v>3.777262568473817</v>
+        <v>0.9367214739322666</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.3475823104381561</v>
+        <v>0.0125227374956011</v>
       </c>
       <c r="G6" t="n">
-        <v>0.5015203952789307</v>
+        <v>-0.0652098655700683</v>
       </c>
       <c r="H6" t="n">
-        <v>-0.2428189367055893</v>
+        <v>0.066737025976181</v>
       </c>
     </row>
     <row r="7">
@@ -625,22 +625,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>-1.7527374625206</v>
+        <v>-0.8476336002349854</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9714637398719776</v>
+        <v>1.69824892282486</v>
       </c>
       <c r="E7" t="n">
-        <v>4.131629109382629</v>
+        <v>0.9451412782073016</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.2506074607372284</v>
+        <v>-0.0397062413394451</v>
       </c>
       <c r="G7" t="n">
-        <v>0.8736900091171265</v>
+        <v>0.0247400421649217</v>
       </c>
       <c r="H7" t="n">
-        <v>-0.1963931769132614</v>
+        <v>0.030695978552103</v>
       </c>
     </row>
     <row r="8">
@@ -653,22 +653,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>-2.943279504776003</v>
+        <v>-0.6413483619689934</v>
       </c>
       <c r="D8" t="n">
-        <v>0.2452936768531791</v>
+        <v>1.650843858718872</v>
       </c>
       <c r="E8" t="n">
-        <v>4.232949018478394</v>
+        <v>0.9322790801525122</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.168751522898674</v>
+        <v>0.012980886735022</v>
       </c>
       <c r="G8" t="n">
-        <v>0.936914563179016</v>
+        <v>0.0633772686123848</v>
       </c>
       <c r="H8" t="n">
-        <v>-0.131183311343193</v>
+        <v>-0.0366519130766391</v>
       </c>
     </row>
     <row r="9">
@@ -681,22 +681,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>-3.76435226202011</v>
+        <v>-0.5721501111984255</v>
       </c>
       <c r="D9" t="n">
-        <v>0.9894824773073276</v>
+        <v>1.609763711690903</v>
       </c>
       <c r="E9" t="n">
-        <v>3.341848820447916</v>
+        <v>1.015784159302711</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.2408336251974105</v>
+        <v>-0.0360410511493682</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.064446285367012</v>
+        <v>0.0274889357388019</v>
       </c>
       <c r="H9" t="n">
-        <v>-0.3248275816440582</v>
+        <v>-0.0474947728216648</v>
       </c>
     </row>
     <row r="10">
@@ -709,22 +709,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>-0.01425111293788817</v>
+        <v>-0.6957695484161374</v>
       </c>
       <c r="D10" t="n">
-        <v>1.767028868198381</v>
+        <v>1.588029444217682</v>
       </c>
       <c r="E10" t="n">
-        <v>-1.569932878017464</v>
+        <v>1.020436197519302</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.2364048510789871</v>
+        <v>-0.0114537235349416</v>
       </c>
       <c r="G10" t="n">
-        <v>0.18539759516716</v>
+        <v>-0.0215329993516206</v>
       </c>
       <c r="H10" t="n">
-        <v>-1.519680023193359</v>
+        <v>0.0035124751739203</v>
       </c>
     </row>
     <row r="11">
@@ -737,22 +737,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>7.34391605854027</v>
+        <v>-0.4331760406494141</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.5457401573657639</v>
+        <v>1.524660766124726</v>
       </c>
       <c r="E11" t="n">
-        <v>-8.302204966545009</v>
+        <v>1.148605212569236</v>
       </c>
       <c r="F11" t="n">
-        <v>-1.216843605041504</v>
+        <v>-0.0171042270958423</v>
       </c>
       <c r="G11" t="n">
-        <v>-1.400255799293518</v>
+        <v>-0.0526871271431446</v>
       </c>
       <c r="H11" t="n">
-        <v>-1.343445420265198</v>
+        <v>0.0519235469400882</v>
       </c>
     </row>
     <row r="12">
@@ -765,22 +765,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>-11.97496986389153</v>
+        <v>-0.3733081817626966</v>
       </c>
       <c r="D12" t="n">
-        <v>8.297744750976534</v>
+        <v>1.395935773849488</v>
       </c>
       <c r="E12" t="n">
-        <v>15.6360607147216</v>
+        <v>1.908020853996279</v>
       </c>
       <c r="F12" t="n">
-        <v>1.094823241233826</v>
+        <v>0.0067195175215601</v>
       </c>
       <c r="G12" t="n">
-        <v>-2.151772737503052</v>
+        <v>0.1915062516927719</v>
       </c>
       <c r="H12" t="n">
-        <v>0.7765624523162842</v>
+        <v>-0.0238237436860799</v>
       </c>
     </row>
     <row r="13">
@@ -793,22 +793,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>3.999401926994334</v>
+        <v>-0.9485191106796277</v>
       </c>
       <c r="D13" t="n">
-        <v>1.987441882491108</v>
+        <v>1.76411008834839</v>
       </c>
       <c r="E13" t="n">
-        <v>-1.899090290069591</v>
+        <v>2.944827482104304</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.2055561542510986</v>
+        <v>-0.001527163083665</v>
       </c>
       <c r="G13" t="n">
-        <v>-1.607033729553223</v>
+        <v>0.3747658133506775</v>
       </c>
       <c r="H13" t="n">
-        <v>-0.9816604256629944</v>
+        <v>0.0192422550171613</v>
       </c>
     </row>
     <row r="14">
@@ -821,22 +821,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>2.015434503555293</v>
+        <v>-1.393463373184205</v>
       </c>
       <c r="D14" t="n">
-        <v>2.558928638696672</v>
+        <v>1.543532192707062</v>
       </c>
       <c r="E14" t="n">
-        <v>-0.2935100495815224</v>
+        <v>3.777262568473817</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.5111414790153503</v>
+        <v>-0.3475823104381561</v>
       </c>
       <c r="G14" t="n">
-        <v>-1.858557462692261</v>
+        <v>0.5015203952789307</v>
       </c>
       <c r="H14" t="n">
-        <v>0.0117591563612222</v>
+        <v>-0.2428189367055893</v>
       </c>
     </row>
     <row r="15">
@@ -849,22 +849,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0.5337359905242919</v>
+        <v>-1.7527374625206</v>
       </c>
       <c r="D15" t="n">
-        <v>2.63483315706253</v>
+        <v>0.9714637398719776</v>
       </c>
       <c r="E15" t="n">
-        <v>-0.1261084899306326</v>
+        <v>4.131629109382629</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.3014619946479797</v>
+        <v>-0.2506074607372284</v>
       </c>
       <c r="G15" t="n">
-        <v>-0.9010262489318848</v>
+        <v>0.8736900091171265</v>
       </c>
       <c r="H15" t="n">
-        <v>0.4983133375644684</v>
+        <v>-0.1963931769132614</v>
       </c>
     </row>
     <row r="16">
@@ -877,22 +877,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>1.104637145996096</v>
+        <v>-2.943279504776003</v>
       </c>
       <c r="D16" t="n">
-        <v>1.630028188228604</v>
+        <v>0.2452936768531791</v>
       </c>
       <c r="E16" t="n">
-        <v>-0.8494508564472198</v>
+        <v>4.232949018478394</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.2797762751579284</v>
+        <v>-0.168751522898674</v>
       </c>
       <c r="G16" t="n">
-        <v>-1.265254616737366</v>
+        <v>0.936914563179016</v>
       </c>
       <c r="H16" t="n">
-        <v>0.2492330223321914</v>
+        <v>-0.131183311343193</v>
       </c>
     </row>
     <row r="17">
@@ -905,22 +905,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>-1.313743948936482</v>
+        <v>-3.76435226202011</v>
       </c>
       <c r="D17" t="n">
-        <v>1.221044480800631</v>
+        <v>0.9894824773073276</v>
       </c>
       <c r="E17" t="n">
-        <v>-1.651125282049184</v>
+        <v>3.341848820447916</v>
       </c>
       <c r="F17" t="n">
-        <v>0.2038762718439102</v>
+        <v>-0.2408336251974105</v>
       </c>
       <c r="G17" t="n">
-        <v>-1.481042742729187</v>
+        <v>-0.064446285367012</v>
       </c>
       <c r="H17" t="n">
-        <v>-0.2376265823841095</v>
+        <v>-0.3248275816440582</v>
       </c>
     </row>
     <row r="18">
@@ -933,22 +933,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>-5.144322872161865</v>
+        <v>-0.01425111293788817</v>
       </c>
       <c r="D18" t="n">
-        <v>1.553820222616196</v>
+        <v>1.767028868198381</v>
       </c>
       <c r="E18" t="n">
-        <v>-2.058750659227372</v>
+        <v>-1.569932878017464</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.328340083360672</v>
+        <v>-0.2364048510789871</v>
       </c>
       <c r="G18" t="n">
-        <v>0.6785185933113098</v>
+        <v>0.18539759516716</v>
       </c>
       <c r="H18" t="n">
-        <v>0.7831292152404785</v>
+        <v>-1.519680023193359</v>
       </c>
     </row>
     <row r="19">
@@ -961,22 +961,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>-1.258464217185967</v>
+        <v>7.34391605854027</v>
       </c>
       <c r="D19" t="n">
-        <v>1.119151741266259</v>
+        <v>-0.5457401573657639</v>
       </c>
       <c r="E19" t="n">
-        <v>0.6321565061807609</v>
+        <v>-8.302204966545009</v>
       </c>
       <c r="F19" t="n">
-        <v>0.0797179117798805</v>
+        <v>-1.216843605041504</v>
       </c>
       <c r="G19" t="n">
-        <v>0.1185078546404838</v>
+        <v>-1.400255799293518</v>
       </c>
       <c r="H19" t="n">
-        <v>0.2952006161212921</v>
+        <v>-1.343445420265198</v>
       </c>
     </row>
     <row r="20">
@@ -989,22 +989,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>0.5062999725341749</v>
+        <v>-11.97496986389153</v>
       </c>
       <c r="D20" t="n">
-        <v>3.225210666656487</v>
+        <v>8.297744750976534</v>
       </c>
       <c r="E20" t="n">
-        <v>0.02823758125305291</v>
+        <v>15.6360607147216</v>
       </c>
       <c r="F20" t="n">
-        <v>0.0479529201984405</v>
+        <v>1.094823241233826</v>
       </c>
       <c r="G20" t="n">
-        <v>0.3949243724346161</v>
+        <v>-2.151772737503052</v>
       </c>
       <c r="H20" t="n">
-        <v>-0.1617265790700912</v>
+        <v>0.7765624523162842</v>
       </c>
     </row>
     <row r="21">
@@ -1017,22 +1017,302 @@
         </is>
       </c>
       <c r="C21" t="n">
+        <v>3.999401926994334</v>
+      </c>
+      <c r="D21" t="n">
+        <v>1.987441882491108</v>
+      </c>
+      <c r="E21" t="n">
+        <v>-1.899090290069591</v>
+      </c>
+      <c r="F21" t="n">
+        <v>-0.2055561542510986</v>
+      </c>
+      <c r="G21" t="n">
+        <v>-1.607033729553223</v>
+      </c>
+      <c r="H21" t="n">
+        <v>-0.9816604256629944</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>2000</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>falling</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>2.015434503555293</v>
+      </c>
+      <c r="D22" t="n">
+        <v>2.558928638696672</v>
+      </c>
+      <c r="E22" t="n">
+        <v>-0.2935100495815224</v>
+      </c>
+      <c r="F22" t="n">
+        <v>-0.5111414790153503</v>
+      </c>
+      <c r="G22" t="n">
+        <v>-1.858557462692261</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0.0117591563612222</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>2100</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>falling</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>0.5337359905242919</v>
+      </c>
+      <c r="D23" t="n">
+        <v>2.63483315706253</v>
+      </c>
+      <c r="E23" t="n">
+        <v>-0.1261084899306326</v>
+      </c>
+      <c r="F23" t="n">
+        <v>-0.3014619946479797</v>
+      </c>
+      <c r="G23" t="n">
+        <v>-0.9010262489318848</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0.4983133375644684</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>2200</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>falling</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>1.104637145996096</v>
+      </c>
+      <c r="D24" t="n">
+        <v>1.630028188228604</v>
+      </c>
+      <c r="E24" t="n">
+        <v>-0.8494508564472198</v>
+      </c>
+      <c r="F24" t="n">
+        <v>-0.2797762751579284</v>
+      </c>
+      <c r="G24" t="n">
+        <v>-1.265254616737366</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0.2492330223321914</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>2300</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>falling</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>-1.313743948936482</v>
+      </c>
+      <c r="D25" t="n">
+        <v>1.221044480800631</v>
+      </c>
+      <c r="E25" t="n">
+        <v>-1.651125282049184</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0.2038762718439102</v>
+      </c>
+      <c r="G25" t="n">
+        <v>-1.481042742729187</v>
+      </c>
+      <c r="H25" t="n">
+        <v>-0.2376265823841095</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>2400</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>falling</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>-5.144322872161865</v>
+      </c>
+      <c r="D26" t="n">
+        <v>1.553820222616196</v>
+      </c>
+      <c r="E26" t="n">
+        <v>-2.058750659227372</v>
+      </c>
+      <c r="F26" t="n">
+        <v>-0.328340083360672</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0.6785185933113098</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0.7831292152404785</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>2500</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>falling</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>-1.258464217185967</v>
+      </c>
+      <c r="D27" t="n">
+        <v>1.119151741266259</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0.6321565061807609</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0.0797179117798805</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0.1185078546404838</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0.2952006161212921</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>2600</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>falling</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>0.5062999725341749</v>
+      </c>
+      <c r="D28" t="n">
+        <v>3.225210666656487</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0.02823758125305291</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0.0479529201984405</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0.3949243724346161</v>
+      </c>
+      <c r="H28" t="n">
+        <v>-0.1617265790700912</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>2700</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>falling</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
         <v>-0.5733692646026665</v>
       </c>
-      <c r="D21" t="n">
+      <c r="D29" t="n">
         <v>1.683094680309288</v>
       </c>
-      <c r="E21" t="n">
+      <c r="E29" t="n">
         <v>0.3010409921407713</v>
       </c>
-      <c r="F21" t="n">
+      <c r="F29" t="n">
         <v>-0.08704829961061469</v>
       </c>
-      <c r="G21" t="n">
+      <c r="G29" t="n">
         <v>-0.058643065392971</v>
       </c>
-      <c r="H21" t="n">
+      <c r="H29" t="n">
         <v>-0.2785545587539673</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>2800</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>falling</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>-0.4257340431213359</v>
+      </c>
+      <c r="D30" t="n">
+        <v>1.845006287097933</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0.8945446908474008</v>
+      </c>
+      <c r="F30" t="n">
+        <v>-0.0519235469400882</v>
+      </c>
+      <c r="G30" t="n">
+        <v>-0.107512280344963</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0.1065959855914115</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>2900</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>falling</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>0.06665813922882169</v>
+      </c>
+      <c r="D31" t="n">
+        <v>1.836877554655074</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0.7217497229576104</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0.0108428578823804</v>
+      </c>
+      <c r="G31" t="n">
+        <v>-0.0210748501121997</v>
+      </c>
+      <c r="H31" t="n">
+        <v>-0.0189368221908807</v>
       </c>
     </row>
   </sheetData>
